--- a/20 開発資料/01.DB設計/タクチケ印刷用SQL検証.xlsx
+++ b/20 開発資料/01.DB設計/タクチケ印刷用SQL検証.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="156">
   <si>
     <t>SELECT DISTINCT</t>
   </si>
@@ -272,11 +272,279 @@
     <t xml:space="preserve">        ON</t>
   </si>
   <si>
-    <t xml:space="preserve">        ) AS TBL_KOTSUHOTEL</t>
+    <t>【案１】</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SELECT TBL_KOTSUHOTEL.* FROM (</t>
+    <t>【案２】</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT TBL_KOTSUHOTEL_1.* FROM </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>) AS TBL_KOTSUHOTEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TBL_KOTSUHOTEL JOIN         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    KOUENKAI_NO,            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SALEFORCE_ID,           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SANKASHA_ID,            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DR_MPID         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TBL_KOTSUHOTEL          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BY            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">) AS TBL_KOTSUHOTEL_2           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_1,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_1,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_1,N'')&lt;&gt;N'' OR           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_2,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_2,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_2,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_3,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_3,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_3,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_4,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_4,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_4,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_5,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_5,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_5,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_6,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_6,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_6,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_7,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_7,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_7,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_8,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_8,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_8,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_9,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_9,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_9,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_10,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_10,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_10,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_11,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_11,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_11,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_12,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_12,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_12,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_13,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_13,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_13,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_14,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_14,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_14,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_15,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_15,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_15,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_16,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_16,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_16,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_17,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_17,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_17,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_18,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_18,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_18,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_19,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_19,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_19,N'')&lt;&gt;N'' OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_20,N'')=N'1' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_HAKKO_DATE_20,N'')=N'' AND ISNULL(TBL_KOTSUHOTEL.ANS_TAXI_DATE_20,N'')&lt;&gt;N'')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) AS TBL_KOTSUHOTEL         </t>
+  </si>
+  <si>
+    <t>JOIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    MAX(TIME_STAMP_BYL) AS TIME_STAMP_BYL_2,          </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    KOUENKAI_NO AS KOUENKAI_NO_2,            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    SALEFORCE_ID AS SALEFORCE_ID_2,           </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    DR_MPID AS DR_MPID_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    SANKASHA_ID AS SANKASHA_ID_2,            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TBL_KOTSUHOTEL.TIME_STAMP_BYL=TBL_KOTSUHOTEL_2.TIME_STAMP_BYL_2   AND         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TBL_KOTSUHOTEL.KOUENKAI_NO=TBL_KOTSUHOTEL_2.KOUENKAI_NO_2   AND           </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TBL_KOTSUHOTEL.SALEFORCE_ID=TBL_KOTSUHOTEL_2.SALEFORCE_ID_2   AND         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TBL_KOTSUHOTEL.SANKASHA_ID=TBL_KOTSUHOTEL_2.SANKASHA_ID_2   AND           </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TBL_KOTSUHOTEL.DR_MPID=TBL_KOTSUHOTEL_2.DR_MPID_2         </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            MAX(TIME_STAMP_BYL) AS TIME_STAMP_BYL_2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MAX(TIME_STAMP_BYL) AS TIME_STAMP_BYL_2,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            KOUENKAI_NO AS KOUENKAI_NO_2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            KOUENKAI_NO AS KOUENKAI_NO_2,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            SALEFORCE_ID AS SALEFORCE_ID_2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SALEFORCE_ID AS SALEFORCE_ID_2,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            SANKASHA_ID AS SANKASHA_ID_2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SANKASHA_ID AS SANKASHA_ID_2,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            DR_MPID AS DR_MPID_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DR_MPID AS DR_MPID_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.TIME_STAMP_BYL=TBL_KOTSUHOTEL_2.TIME_STAMP_BYL_2   AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.TIME_STAMP_BYL=TBL_KOTSUHOTEL_2.TIME_STAMP_BYL_2   AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.KOUENKAI_NO=TBL_KOTSUHOTEL_2.KOUENKAI_NO_2   AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.KOUENKAI_NO=TBL_KOTSUHOTEL_2.KOUENKAI_NO_2   AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.SALEFORCE_ID=TBL_KOTSUHOTEL_2.SALEFORCE_ID_2   AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.SALEFORCE_ID=TBL_KOTSUHOTEL_2.SALEFORCE_ID_2   AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.SANKASHA_ID=TBL_KOTSUHOTEL_2.SANKASHA_ID_2   AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.SANKASHA_ID=TBL_KOTSUHOTEL_2.SANKASHA_ID_2   AND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.DR_MPID=TBL_KOTSUHOTEL_2.DR_MPID_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TBL_KOTSUHOTEL_1.DR_MPID=TBL_KOTSUHOTEL_2.DR_MPID_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME_STAMP_BYL,</t>
+  </si>
+  <si>
+    <t>KOUENKAI_NO,</t>
+  </si>
+  <si>
+    <t>SALEFORCE_ID,</t>
+  </si>
+  <si>
+    <t>SANKASHA_ID,</t>
+  </si>
+  <si>
+    <t>DR_MPID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT TBL_KOTSUHOTEL_1.* FROM </t>
+  </si>
+  <si>
+    <t>) AS TBL_KOTSUHOTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SELECT TBL_KOUENKAI_1.* FROM TBL_KOUENKAI AS TBL_KOUENKAI_1 </t>
+  </si>
+  <si>
+    <t>) AS TBL_KOUENKAI</t>
+  </si>
+  <si>
+    <t>【案３】</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -864,45 +1132,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BL1" sqref="BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="23"/>
+      <c r="BL1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="23"/>
+      <c r="BM2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="23"/>
+      <c r="BM3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="23"/>
+      <c r="BM4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="23"/>
+      <c r="BM5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="23"/>
+      <c r="BM6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -925,12 +1256,24 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
+      <c r="U7" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="V7" s="23" t="s">
         <v>72</v>
       </c>
       <c r="W7" s="23"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="BM7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -957,8 +1300,17 @@
       <c r="W8" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="BM8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -985,8 +1337,17 @@
         <v>6</v>
       </c>
       <c r="W9" s="23"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="BN9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1374,17 @@
         <v>64</v>
       </c>
       <c r="W10" s="23"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="BN10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1041,8 +1411,17 @@
         <v>65</v>
       </c>
       <c r="W11" s="23"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="BN11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -1069,8 +1448,17 @@
         <v>8</v>
       </c>
       <c r="W12" s="23"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="BN12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -1097,8 +1485,17 @@
         <v>66</v>
       </c>
       <c r="W13" s="23"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS13" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="BN13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1125,8 +1522,17 @@
         <v>67</v>
       </c>
       <c r="W14" s="23"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS14" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="BM14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1153,8 +1559,17 @@
         <v>65</v>
       </c>
       <c r="W15" s="23"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS15" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="BM15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1181,8 +1596,17 @@
         <v>68</v>
       </c>
       <c r="W16" s="23"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="BM16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1209,8 +1633,17 @@
         <v>69</v>
       </c>
       <c r="W17" s="23"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="BM17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1237,8 +1670,17 @@
         <v>70</v>
       </c>
       <c r="W18" s="23"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="BP18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1265,8 +1707,17 @@
         <v>71</v>
       </c>
       <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS19" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="BP19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -1292,8 +1743,17 @@
       <c r="V20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="BP20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
@@ -1316,8 +1776,20 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS21" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="BP21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1340,8 +1812,11 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>17</v>
       </c>
@@ -1364,8 +1839,11 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -1388,8 +1866,11 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
@@ -1412,8 +1893,11 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>21</v>
       </c>
@@ -1436,8 +1920,11 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
@@ -1460,8 +1947,11 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BP27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -1484,8 +1974,11 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="BP28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
@@ -1509,10 +2002,19 @@
       <c r="S29" s="12"/>
       <c r="T29" s="13"/>
       <c r="V29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS29" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
@@ -1538,8 +2040,14 @@
       <c r="V30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="AS30" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>8</v>
       </c>
@@ -1562,11 +2070,17 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="15"/>
-      <c r="V31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS31" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>9</v>
       </c>
@@ -1589,11 +2103,17 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="15"/>
-      <c r="V32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS32" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>10</v>
       </c>
@@ -1616,11 +2136,17 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="15"/>
-      <c r="V33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS33" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
         <v>11</v>
       </c>
@@ -1643,11 +2169,17 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="15"/>
-      <c r="V34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS34" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>24</v>
       </c>
@@ -1670,11 +2202,17 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="15"/>
-      <c r="V35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="W35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
         <v>13</v>
       </c>
@@ -1697,11 +2235,17 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="15"/>
-      <c r="Y36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1724,11 +2268,17 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="15"/>
-      <c r="Y37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="2" t="s">
         <v>44</v>
@@ -1751,11 +2301,17 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="15"/>
-      <c r="Y38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="2" t="s">
         <v>45</v>
@@ -1778,11 +2334,17 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="15"/>
-      <c r="Y39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="22" t="s">
         <v>46</v>
@@ -1806,10 +2368,16 @@
       <c r="S40" s="1"/>
       <c r="T40" s="15"/>
       <c r="Y40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="22" t="s">
         <v>47</v>
@@ -1833,10 +2401,16 @@
       <c r="S41" s="1"/>
       <c r="T41" s="15"/>
       <c r="Y41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="22" t="s">
         <v>48</v>
@@ -1860,10 +2434,16 @@
       <c r="S42" s="1"/>
       <c r="T42" s="15"/>
       <c r="Y42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="22" t="s">
         <v>49</v>
@@ -1887,10 +2467,16 @@
       <c r="S43" s="1"/>
       <c r="T43" s="15"/>
       <c r="Y43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A44" s="16"/>
       <c r="B44" s="22" t="s">
         <v>50</v>
@@ -1914,10 +2500,16 @@
       <c r="S44" s="1"/>
       <c r="T44" s="15"/>
       <c r="Y44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A45" s="16"/>
       <c r="B45" s="22" t="s">
         <v>51</v>
@@ -1941,10 +2533,16 @@
       <c r="S45" s="1"/>
       <c r="T45" s="15"/>
       <c r="Y45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>88</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A46" s="16"/>
       <c r="B46" s="22" t="s">
         <v>52</v>
@@ -1968,10 +2566,16 @@
       <c r="S46" s="1"/>
       <c r="T46" s="15"/>
       <c r="Y46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="22" t="s">
         <v>53</v>
@@ -1995,10 +2599,16 @@
       <c r="S47" s="1"/>
       <c r="T47" s="15"/>
       <c r="Y47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68" x14ac:dyDescent="0.15">
       <c r="A48" s="16"/>
       <c r="B48" s="22" t="s">
         <v>54</v>
@@ -2022,10 +2632,16 @@
       <c r="S48" s="1"/>
       <c r="T48" s="15"/>
       <c r="Y48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="22" t="s">
         <v>55</v>
@@ -2049,10 +2665,16 @@
       <c r="S49" s="1"/>
       <c r="T49" s="15"/>
       <c r="Y49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>86</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="22" t="s">
         <v>56</v>
@@ -2076,10 +2698,16 @@
       <c r="S50" s="1"/>
       <c r="T50" s="15"/>
       <c r="Y50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="22" t="s">
         <v>57</v>
@@ -2103,10 +2731,16 @@
       <c r="S51" s="1"/>
       <c r="T51" s="15"/>
       <c r="Y51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="22" t="s">
         <v>58</v>
@@ -2130,10 +2764,16 @@
       <c r="S52" s="1"/>
       <c r="T52" s="15"/>
       <c r="Y52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="22" t="s">
         <v>59</v>
@@ -2157,10 +2797,16 @@
       <c r="S53" s="1"/>
       <c r="T53" s="15"/>
       <c r="Y53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="22" t="s">
         <v>60</v>
@@ -2184,10 +2830,16 @@
       <c r="S54" s="1"/>
       <c r="T54" s="15"/>
       <c r="Y54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="22" t="s">
         <v>61</v>
@@ -2210,11 +2862,17 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="15"/>
-      <c r="V55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y55" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="22" t="s">
         <v>62</v>
@@ -2237,11 +2895,17 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="15"/>
-      <c r="V56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y56" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:66" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>25</v>
       </c>
@@ -2264,11 +2928,26 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="15"/>
-      <c r="V57" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AS57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="BM57" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
         <v>9</v>
       </c>
@@ -2291,11 +2970,17 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="15"/>
-      <c r="V58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>26</v>
       </c>
@@ -2319,10 +3004,16 @@
       <c r="S59" s="1"/>
       <c r="T59" s="15"/>
       <c r="V59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>27</v>
       </c>
@@ -2346,10 +3037,16 @@
       <c r="S60" s="1"/>
       <c r="T60" s="15"/>
       <c r="V60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>28</v>
       </c>
@@ -2372,11 +3069,26 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="15"/>
-      <c r="V61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="V61" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AS61" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="21"/>
+      <c r="AV61" s="21"/>
+      <c r="AW61" s="21"/>
+      <c r="BN61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
         <v>29</v>
       </c>
@@ -2400,10 +3112,16 @@
       <c r="S62" s="1"/>
       <c r="T62" s="15"/>
       <c r="V62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
         <v>30</v>
       </c>
@@ -2427,10 +3145,16 @@
       <c r="S63" s="1"/>
       <c r="T63" s="15"/>
       <c r="V63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>11</v>
       </c>
@@ -2454,10 +3178,16 @@
       <c r="S64" s="1"/>
       <c r="T64" s="15"/>
       <c r="V64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>24</v>
       </c>
@@ -2481,10 +3211,16 @@
       <c r="S65" s="1"/>
       <c r="T65" s="15"/>
       <c r="V65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>18</v>
       </c>
@@ -2508,10 +3244,16 @@
       <c r="S66" s="1"/>
       <c r="T66" s="15"/>
       <c r="V66" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>100</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>27</v>
       </c>
@@ -2535,10 +3277,16 @@
       <c r="S67" s="1"/>
       <c r="T67" s="15"/>
       <c r="V67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>28</v>
       </c>
@@ -2562,10 +3310,16 @@
       <c r="S68" s="1"/>
       <c r="T68" s="15"/>
       <c r="V68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>29</v>
       </c>
@@ -2589,10 +3343,16 @@
       <c r="S69" s="1"/>
       <c r="T69" s="15"/>
       <c r="V69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>30</v>
       </c>
@@ -2616,10 +3376,16 @@
       <c r="S70" s="1"/>
       <c r="T70" s="15"/>
       <c r="V70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A71" s="17" t="s">
         <v>31</v>
       </c>
@@ -2643,10 +3409,16 @@
       <c r="S71" s="1"/>
       <c r="T71" s="15"/>
       <c r="V71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A72" s="14" t="s">
         <v>20</v>
       </c>
@@ -2670,10 +3442,16 @@
       <c r="S72" s="1"/>
       <c r="T72" s="15"/>
       <c r="V72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
         <v>32</v>
       </c>
@@ -2697,10 +3475,16 @@
       <c r="S73" s="1"/>
       <c r="T73" s="15"/>
       <c r="V73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A74" s="14" t="s">
         <v>33</v>
       </c>
@@ -2724,10 +3508,16 @@
       <c r="S74" s="1"/>
       <c r="T74" s="15"/>
       <c r="V74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A75" s="14" t="s">
         <v>34</v>
       </c>
@@ -2751,10 +3541,16 @@
       <c r="S75" s="1"/>
       <c r="T75" s="15"/>
       <c r="V75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A76" s="14" t="s">
         <v>35</v>
       </c>
@@ -2778,10 +3574,16 @@
       <c r="S76" s="1"/>
       <c r="T76" s="15"/>
       <c r="V76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A77" s="14" t="s">
         <v>36</v>
       </c>
@@ -2804,8 +3606,17 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="15"/>
-    </row>
-    <row r="78" spans="1:22" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V77" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>42</v>
       </c>
@@ -2828,26 +3639,77 @@
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
       <c r="T78" s="20"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V78" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V79" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS79" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT79" s="23"/>
+      <c r="AU79" s="23"/>
+    </row>
+    <row r="80" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="V80" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS80" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT80" s="23"/>
+      <c r="AU80" s="23"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="V81" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS81" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT81" s="23"/>
+      <c r="AU81" s="23"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>40</v>
       </c>
+      <c r="V82" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W82" s="23"/>
+      <c r="AS82" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT82" s="23"/>
+      <c r="AU82" s="23"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="V83" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W83" s="23"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="V84" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="W84" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/20 開発資料/01.DB設計/タクチケ印刷用SQL検証.xlsx
+++ b/20 開発資料/01.DB設計/タクチケ印刷用SQL検証.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27840" windowHeight="12780"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27840" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="会合番号抽出条件追加" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="183">
   <si>
     <t>SELECT DISTINCT</t>
   </si>
@@ -546,6 +547,88 @@
       <t>アン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    TBL_KOTSUHOTEL.KOUENKAI_NO BETWEEN 'MTG17-00000000' AND 'MTG17-99999999' AND </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUENKAI_NO</t>
+  </si>
+  <si>
+    <t>TAXI_PRT_NAME</t>
+  </si>
+  <si>
+    <t>FROM_DATE</t>
+  </si>
+  <si>
+    <t>TO_DATE</t>
+  </si>
+  <si>
+    <t>MTG17-00130793</t>
+  </si>
+  <si>
+    <t>女性医療フォーラム</t>
+  </si>
+  <si>
+    <t>MTG16-00123123</t>
+  </si>
+  <si>
+    <t>イグザレルト講演会</t>
+  </si>
+  <si>
+    <t>MTG17-00125990</t>
+  </si>
+  <si>
+    <t>南那須医師会講演会</t>
+  </si>
+  <si>
+    <t>MTG16-00120992</t>
+  </si>
+  <si>
+    <t>CRC Adviso</t>
+  </si>
+  <si>
+    <t>MTG17-00125759</t>
+  </si>
+  <si>
+    <t>C.I.C</t>
+  </si>
+  <si>
+    <t>MTG16-00120507</t>
+  </si>
+  <si>
+    <t>ZETWEB0324</t>
+  </si>
+  <si>
+    <t>MTG17-00124993</t>
+  </si>
+  <si>
+    <t>BYL勉強会</t>
+  </si>
+  <si>
+    <t>MTG16-00120064</t>
+  </si>
+  <si>
+    <t>3/26FOS8th</t>
+  </si>
+  <si>
+    <t>MTG17-00124800</t>
+  </si>
+  <si>
+    <t>大阪腎病理カンファレ</t>
+  </si>
+  <si>
+    <t>MTG16-00114851</t>
+  </si>
+  <si>
+    <t>第2回　Retina</t>
+  </si>
+  <si>
+    <t>MTG17-00124123</t>
+  </si>
+  <si>
+    <t>4/23XAR5周年</t>
   </si>
 </sst>
 </file>
@@ -602,12 +685,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -753,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +913,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1"/>
+    <sheetView topLeftCell="AV52" workbookViewId="0">
+      <selection activeCell="BF97" sqref="BF97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1639,8 +1734,8 @@
       <c r="AT17" s="23"/>
       <c r="AU17" s="23"/>
       <c r="AV17" s="23"/>
-      <c r="BM17" t="s">
-        <v>43</v>
+      <c r="BN17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.15">
@@ -1676,8 +1771,8 @@
       <c r="AT18" s="23"/>
       <c r="AU18" s="23"/>
       <c r="AV18" s="23"/>
-      <c r="BP18" t="s">
-        <v>44</v>
+      <c r="BM18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.15">
@@ -1714,7 +1809,7 @@
       <c r="AU19" s="23"/>
       <c r="AV19" s="23"/>
       <c r="BP19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.15">
@@ -1750,7 +1845,7 @@
       <c r="AU20" s="23"/>
       <c r="AV20" s="23"/>
       <c r="BP20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.15">
@@ -1786,7 +1881,7 @@
       <c r="AU21" s="23"/>
       <c r="AV21" s="23"/>
       <c r="BP21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.15">
@@ -1813,7 +1908,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="8"/>
       <c r="BP22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.15">
@@ -1840,7 +1935,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="8"/>
       <c r="BP23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.15">
@@ -1867,7 +1962,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="8"/>
       <c r="BP24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.15">
@@ -1894,7 +1989,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="8"/>
       <c r="BP25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.15">
@@ -1921,7 +2016,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="8"/>
       <c r="BP26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.15">
@@ -1948,7 +2043,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="8"/>
       <c r="BP27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:68" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1975,7 +2070,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="8"/>
       <c r="BP28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.15">
@@ -2011,7 +2106,7 @@
         <v>80</v>
       </c>
       <c r="BP29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.15">
@@ -2044,7 +2139,7 @@
         <v>146</v>
       </c>
       <c r="BP30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.15">
@@ -2077,7 +2172,7 @@
         <v>147</v>
       </c>
       <c r="BP31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.15">
@@ -2110,7 +2205,7 @@
         <v>148</v>
       </c>
       <c r="BP32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.15">
@@ -2143,7 +2238,7 @@
         <v>149</v>
       </c>
       <c r="BP33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.15">
@@ -2176,7 +2271,7 @@
         <v>150</v>
       </c>
       <c r="BP34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.15">
@@ -2209,7 +2304,7 @@
         <v>81</v>
       </c>
       <c r="BP35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.15">
@@ -2242,7 +2337,7 @@
         <v>82</v>
       </c>
       <c r="BP36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.15">
@@ -2274,8 +2369,8 @@
       <c r="AS37" t="s">
         <v>80</v>
       </c>
-      <c r="BM37" t="s">
-        <v>74</v>
+      <c r="BP37" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.15">
@@ -2308,7 +2403,7 @@
         <v>116</v>
       </c>
       <c r="BM38" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.15">
@@ -2341,7 +2436,7 @@
         <v>117</v>
       </c>
       <c r="BM39" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:68" x14ac:dyDescent="0.15">
@@ -2374,7 +2469,7 @@
         <v>118</v>
       </c>
       <c r="BM40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:68" x14ac:dyDescent="0.15">
@@ -2407,7 +2502,7 @@
         <v>120</v>
       </c>
       <c r="BM41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:68" x14ac:dyDescent="0.15">
@@ -2440,7 +2535,7 @@
         <v>119</v>
       </c>
       <c r="BM42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:68" x14ac:dyDescent="0.15">
@@ -2473,7 +2568,7 @@
         <v>81</v>
       </c>
       <c r="BM43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:68" x14ac:dyDescent="0.15">
@@ -2506,7 +2601,7 @@
         <v>87</v>
       </c>
       <c r="BM44" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:68" x14ac:dyDescent="0.15">
@@ -2539,7 +2634,7 @@
         <v>88</v>
       </c>
       <c r="BM45" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.15">
@@ -2572,7 +2667,7 @@
         <v>83</v>
       </c>
       <c r="BM46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:68" x14ac:dyDescent="0.15">
@@ -2605,7 +2700,7 @@
         <v>84</v>
       </c>
       <c r="BM47" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:68" x14ac:dyDescent="0.15">
@@ -2638,10 +2733,10 @@
         <v>85</v>
       </c>
       <c r="BM48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="22" t="s">
         <v>55</v>
@@ -2671,10 +2766,10 @@
         <v>86</v>
       </c>
       <c r="BM49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="22" t="s">
         <v>56</v>
@@ -2704,10 +2799,10 @@
         <v>89</v>
       </c>
       <c r="BM50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="22" t="s">
         <v>57</v>
@@ -2737,10 +2832,10 @@
         <v>90</v>
       </c>
       <c r="BM51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="22" t="s">
         <v>58</v>
@@ -2770,10 +2865,10 @@
         <v>121</v>
       </c>
       <c r="BM52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="22" t="s">
         <v>59</v>
@@ -2803,10 +2898,10 @@
         <v>122</v>
       </c>
       <c r="BM53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="22" t="s">
         <v>60</v>
@@ -2836,10 +2931,10 @@
         <v>123</v>
       </c>
       <c r="BM54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="22" t="s">
         <v>61</v>
@@ -2869,10 +2964,10 @@
         <v>124</v>
       </c>
       <c r="BM55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A56" s="16"/>
       <c r="B56" s="22" t="s">
         <v>62</v>
@@ -2902,10 +2997,10 @@
         <v>125</v>
       </c>
       <c r="BM56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:66" s="21" customFormat="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:76" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>25</v>
       </c>
@@ -2943,11 +3038,22 @@
       <c r="AU57"/>
       <c r="AV57"/>
       <c r="AW57"/>
-      <c r="BM57" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="BM57" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+    </row>
+    <row r="58" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
         <v>9</v>
       </c>
@@ -2976,11 +3082,22 @@
       <c r="AS58" t="s">
         <v>92</v>
       </c>
-      <c r="BM58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="BM58" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN58" s="21"/>
+      <c r="BO58" s="21"/>
+      <c r="BP58" s="21"/>
+      <c r="BQ58" s="21"/>
+      <c r="BR58" s="21"/>
+      <c r="BS58" s="21"/>
+      <c r="BT58" s="21"/>
+      <c r="BU58" s="21"/>
+      <c r="BV58" s="21"/>
+      <c r="BW58" s="21"/>
+      <c r="BX58" s="21"/>
+    </row>
+    <row r="59" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>26</v>
       </c>
@@ -3010,10 +3127,10 @@
         <v>93</v>
       </c>
       <c r="BM59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>27</v>
       </c>
@@ -3043,10 +3160,10 @@
         <v>94</v>
       </c>
       <c r="BM60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>28</v>
       </c>
@@ -3084,11 +3201,11 @@
       <c r="AU61" s="21"/>
       <c r="AV61" s="21"/>
       <c r="AW61" s="21"/>
-      <c r="BN61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="BM61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
         <v>29</v>
       </c>
@@ -3117,11 +3234,11 @@
       <c r="AS62" t="s">
         <v>96</v>
       </c>
-      <c r="BM62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.15">
+      <c r="BN62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
         <v>30</v>
       </c>
@@ -3151,10 +3268,10 @@
         <v>97</v>
       </c>
       <c r="BM63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3301,7 @@
         <v>98</v>
       </c>
       <c r="BM64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.15">
@@ -3217,7 +3334,7 @@
         <v>99</v>
       </c>
       <c r="BM65" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:65" x14ac:dyDescent="0.15">
@@ -3250,7 +3367,7 @@
         <v>100</v>
       </c>
       <c r="BM66" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:65" x14ac:dyDescent="0.15">
@@ -3283,7 +3400,7 @@
         <v>101</v>
       </c>
       <c r="BM67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:65" x14ac:dyDescent="0.15">
@@ -3316,7 +3433,7 @@
         <v>102</v>
       </c>
       <c r="BM68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:65" x14ac:dyDescent="0.15">
@@ -3349,7 +3466,7 @@
         <v>103</v>
       </c>
       <c r="BM69" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:65" x14ac:dyDescent="0.15">
@@ -3382,7 +3499,7 @@
         <v>104</v>
       </c>
       <c r="BM70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.15">
@@ -3415,7 +3532,7 @@
         <v>105</v>
       </c>
       <c r="BM71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:65" x14ac:dyDescent="0.15">
@@ -3448,7 +3565,7 @@
         <v>106</v>
       </c>
       <c r="BM72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:65" x14ac:dyDescent="0.15">
@@ -3481,7 +3598,7 @@
         <v>107</v>
       </c>
       <c r="BM73" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:65" x14ac:dyDescent="0.15">
@@ -3514,7 +3631,7 @@
         <v>108</v>
       </c>
       <c r="BM74" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:65" x14ac:dyDescent="0.15">
@@ -3547,7 +3664,7 @@
         <v>109</v>
       </c>
       <c r="BM75" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:65" x14ac:dyDescent="0.15">
@@ -3580,7 +3697,7 @@
         <v>110</v>
       </c>
       <c r="BM76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:65" x14ac:dyDescent="0.15">
@@ -3613,7 +3730,7 @@
         <v>111</v>
       </c>
       <c r="BM77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:65" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3645,6 +3762,9 @@
       <c r="AS78" t="s">
         <v>112</v>
       </c>
+      <c r="BM78" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
@@ -3716,4 +3836,450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="24">
+        <v>20170322</v>
+      </c>
+      <c r="D2" s="24">
+        <v>20170322</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="24">
+        <v>20170322</v>
+      </c>
+      <c r="I2" s="24">
+        <v>20170322</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="24">
+        <v>20170308</v>
+      </c>
+      <c r="N2" s="24">
+        <v>20170308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="24">
+        <v>20170315</v>
+      </c>
+      <c r="D3" s="24">
+        <v>20170315</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="24">
+        <v>20170315</v>
+      </c>
+      <c r="I3" s="24">
+        <v>20170315</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="24">
+        <v>20170408</v>
+      </c>
+      <c r="N3" s="24">
+        <v>20170408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="24">
+        <v>20170304</v>
+      </c>
+      <c r="D4" s="24">
+        <v>20170304</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="24">
+        <v>20170304</v>
+      </c>
+      <c r="I4" s="24">
+        <v>20170304</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="24">
+        <v>20170324</v>
+      </c>
+      <c r="N4" s="24">
+        <v>20170324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="24">
+        <v>20170309</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20170309</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="24">
+        <v>20170309</v>
+      </c>
+      <c r="I5" s="24">
+        <v>20170309</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="24">
+        <v>20170326</v>
+      </c>
+      <c r="N5" s="24">
+        <v>20170326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="D6" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="I6" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="N6" s="24">
+        <v>20170311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="24">
+        <v>20170423</v>
+      </c>
+      <c r="D7" s="24">
+        <v>20170423</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="24">
+        <v>20170423</v>
+      </c>
+      <c r="I7" s="24">
+        <v>20170423</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="24">
+        <v>20170308</v>
+      </c>
+      <c r="D8" s="24">
+        <v>20170308</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="24">
+        <v>20170308</v>
+      </c>
+      <c r="I8" s="24">
+        <v>20170308</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="24">
+        <v>20170408</v>
+      </c>
+      <c r="D9" s="24">
+        <v>20170408</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="24">
+        <v>20170408</v>
+      </c>
+      <c r="I9" s="24">
+        <v>20170408</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="24">
+        <v>20170324</v>
+      </c>
+      <c r="D10" s="24">
+        <v>20170324</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="24">
+        <v>20170324</v>
+      </c>
+      <c r="I10" s="24">
+        <v>20170324</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="24">
+        <v>20170326</v>
+      </c>
+      <c r="D11" s="24">
+        <v>20170326</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="24">
+        <v>20170326</v>
+      </c>
+      <c r="I11" s="24">
+        <v>20170326</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="D12" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="I12" s="24">
+        <v>20170311</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>